--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -527,10 +527,10 @@
         <x:v>5110</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6308</x:v>
+        <x:v>6309</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>3653</x:v>
+        <x:v>3654</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -495,7 +495,7 @@
         <x:v>557</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>867</x:v>
+        <x:v>868</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>1479</x:v>
@@ -524,13 +524,13 @@
         <x:v>3061</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5110</x:v>
+        <x:v>5111</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
         <x:v>6309</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>3654</x:v>
+        <x:v>3656</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -686,7 +686,7 @@
         <x:v>1417</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>841</x:v>
+        <x:v>842</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -732,7 +732,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
         <x:v>37</x:v>
@@ -758,7 +758,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
         <x:v>25</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -501,7 +501,7 @@
         <x:v>1479</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1767</x:v>
+        <x:v>1769</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>707</x:v>
@@ -524,13 +524,13 @@
         <x:v>3061</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5111</x:v>
+        <x:v>5112</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
         <x:v>6309</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>3656</x:v>
+        <x:v>3657</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -660,7 +660,7 @@
         <x:v>812</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>549</x:v>
+        <x:v>550</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -680,7 +680,7 @@
         <x:v>674</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>1248</x:v>
+        <x:v>1249</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
         <x:v>1417</x:v>
@@ -862,7 +862,7 @@
         <x:v>655</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1251</x:v>
+        <x:v>1252</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>1170</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -498,13 +498,13 @@
         <x:v>868</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1479</x:v>
+        <x:v>1480</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1769</x:v>
+        <x:v>1772</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>707</x:v>
+        <x:v>709</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
@@ -524,13 +524,13 @@
         <x:v>3061</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5112</x:v>
+        <x:v>5117</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6309</x:v>
+        <x:v>6311</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>3657</x:v>
+        <x:v>3659</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -648,7 +648,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>647</x:v>
+        <x:v>646</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>475</x:v>
@@ -686,7 +686,7 @@
         <x:v>1417</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>842</x:v>
+        <x:v>843</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -706,13 +706,13 @@
         <x:v>2052</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>3494</x:v>
+        <x:v>3495</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>3694</x:v>
+        <x:v>3695</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>2203</x:v>
+        <x:v>2204</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
         <x:v>0</x:v>
@@ -781,7 +781,7 @@
         <x:v>382</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>514</x:v>
+        <x:v>515</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>64</x:v>
@@ -816,7 +816,7 @@
         <x:v>183</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
         <x:v>0</x:v>
@@ -862,7 +862,7 @@
         <x:v>655</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1252</x:v>
+        <x:v>1253</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>1170</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -495,16 +495,16 @@
         <x:v>557</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>868</x:v>
+        <x:v>867</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1480</x:v>
+        <x:v>1481</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>1772</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>709</x:v>
+        <x:v>710</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
@@ -518,16 +518,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>1146</x:v>
+        <x:v>1147</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>3061</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5117</x:v>
+        <x:v>5121</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6311</x:v>
+        <x:v>6313</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3659</x:v>
@@ -657,7 +657,7 @@
         <x:v>685</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>812</x:v>
+        <x:v>813</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>550</x:v>
@@ -686,7 +686,7 @@
         <x:v>1417</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>843</x:v>
+        <x:v>844</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -683,7 +683,7 @@
         <x:v>1249</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>1417</x:v>
+        <x:v>1418</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>844</x:v>
@@ -706,10 +706,10 @@
         <x:v>2052</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>3495</x:v>
+        <x:v>3496</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>3695</x:v>
+        <x:v>3696</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>2204</x:v>
@@ -807,7 +807,7 @@
         <x:v>385</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>1069</x:v>
+        <x:v>1071</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>171</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -521,7 +521,7 @@
         <x:v>1147</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>3061</x:v>
+        <x:v>3062</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>5121</x:v>
@@ -530,7 +530,7 @@
         <x:v>6313</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>3659</x:v>
+        <x:v>3660</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -686,7 +686,7 @@
         <x:v>1418</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>844</x:v>
+        <x:v>845</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -706,7 +706,7 @@
         <x:v>2052</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>3496</x:v>
+        <x:v>3497</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>3696</x:v>
@@ -859,7 +859,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>655</x:v>
+        <x:v>657</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>1253</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -527,7 +527,7 @@
         <x:v>5121</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6313</x:v>
+        <x:v>6314</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3660</x:v>
@@ -660,7 +660,7 @@
         <x:v>813</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>550</x:v>
+        <x:v>549</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -807,7 +807,7 @@
         <x:v>385</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>1071</x:v>
+        <x:v>1072</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>171</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -495,10 +495,10 @@
         <x:v>557</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>867</x:v>
+        <x:v>868</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1481</x:v>
+        <x:v>1484</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>1772</x:v>
@@ -709,7 +709,7 @@
         <x:v>3497</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>3696</x:v>
+        <x:v>3698</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>2204</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -498,13 +498,13 @@
         <x:v>868</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1484</x:v>
+        <x:v>1485</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>1772</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>710</x:v>
+        <x:v>711</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
@@ -521,13 +521,13 @@
         <x:v>1147</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>3062</x:v>
+        <x:v>3063</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5121</x:v>
+        <x:v>5122</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6314</x:v>
+        <x:v>6315</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3660</x:v>
@@ -648,7 +648,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>646</x:v>
+        <x:v>647</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>475</x:v>
@@ -680,7 +680,7 @@
         <x:v>674</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>1249</x:v>
+        <x:v>1250</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
         <x:v>1418</x:v>
@@ -703,7 +703,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>2052</x:v>
+        <x:v>2053</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>3497</x:v>
@@ -712,7 +712,7 @@
         <x:v>3698</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>2204</x:v>
+        <x:v>2205</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
         <x:v>0</x:v>
@@ -859,7 +859,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>657</x:v>
+        <x:v>658</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>1253</x:v>
@@ -868,7 +868,7 @@
         <x:v>1170</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>549</x:v>
+        <x:v>550</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -686,7 +686,7 @@
         <x:v>1418</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>845</x:v>
+        <x:v>846</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -683,7 +683,7 @@
         <x:v>1250</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>1418</x:v>
+        <x:v>1419</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>846</x:v>
@@ -862,7 +862,7 @@
         <x:v>658</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1253</x:v>
+        <x:v>1254</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>1170</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -501,7 +501,7 @@
         <x:v>1485</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1772</x:v>
+        <x:v>1773</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>711</x:v>
@@ -518,7 +518,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>1147</x:v>
+        <x:v>1149</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>3063</x:v>
@@ -654,13 +654,13 @@
         <x:v>475</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>685</x:v>
+        <x:v>686</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>813</x:v>
+        <x:v>814</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>549</x:v>
+        <x:v>550</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -706,7 +706,7 @@
         <x:v>2053</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>3497</x:v>
+        <x:v>3498</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>3698</x:v>
@@ -865,7 +865,7 @@
         <x:v>1254</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1170</x:v>
+        <x:v>1171</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>550</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -521,10 +521,10 @@
         <x:v>1149</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>3063</x:v>
+        <x:v>3064</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5122</x:v>
+        <x:v>5123</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
         <x:v>6315</x:v>
@@ -810,7 +810,7 @@
         <x:v>1072</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
         <x:v>183</x:v>
@@ -865,7 +865,7 @@
         <x:v>1254</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1171</x:v>
+        <x:v>1172</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>550</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -527,7 +527,7 @@
         <x:v>5123</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6315</x:v>
+        <x:v>6316</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3660</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -501,7 +501,7 @@
         <x:v>1485</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1773</x:v>
+        <x:v>1774</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>711</x:v>
@@ -686,7 +686,7 @@
         <x:v>1419</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>846</x:v>
+        <x:v>847</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -492,7 +492,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>557</x:v>
+        <x:v>556</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>868</x:v>
@@ -518,7 +518,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>1149</x:v>
+        <x:v>1148</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>3064</x:v>
@@ -631,7 +631,7 @@
         <x:v>281</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>345</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>162</x:v>
@@ -709,10 +709,10 @@
         <x:v>3498</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>3698</x:v>
+        <x:v>3699</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>2205</x:v>
+        <x:v>2206</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
         <x:v>0</x:v>
@@ -758,7 +758,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
         <x:v>25</x:v>
@@ -778,7 +778,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>382</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>515</x:v>
@@ -804,7 +804,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>385</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>1072</x:v>
@@ -813,7 +813,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>126</x:v>
@@ -856,7 +856,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>658</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -527,7 +527,7 @@
         <x:v>5123</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6316</x:v>
+        <x:v>6317</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3660</x:v>
@@ -622,7 +622,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>252</x:v>
@@ -631,7 +631,7 @@
         <x:v>281</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>346</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>162</x:v>
@@ -706,7 +706,7 @@
         <x:v>2053</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>3498</x:v>
+        <x:v>3500</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>3699</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -498,7 +498,7 @@
         <x:v>868</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1485</x:v>
+        <x:v>1486</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>1774</x:v>
@@ -524,13 +524,13 @@
         <x:v>3064</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5123</x:v>
+        <x:v>5126</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6317</x:v>
+        <x:v>6318</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>3660</x:v>
+        <x:v>3662</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -651,7 +651,7 @@
         <x:v>647</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>475</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>686</x:v>
@@ -683,7 +683,7 @@
         <x:v>1250</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>1419</x:v>
+        <x:v>1420</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>847</x:v>
@@ -836,7 +836,7 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>477</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -521,10 +521,10 @@
         <x:v>1148</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>3064</x:v>
+        <x:v>3065</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5126</x:v>
+        <x:v>5127</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
         <x:v>6318</x:v>
@@ -787,7 +787,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>36</x:v>
@@ -816,7 +816,7 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
         <x:v>0</x:v>
@@ -833,7 +833,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>334</x:v>
@@ -865,7 +865,7 @@
         <x:v>1254</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1172</x:v>
+        <x:v>1174</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>550</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -521,10 +521,10 @@
         <x:v>1148</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>3065</x:v>
+        <x:v>3066</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5127</x:v>
+        <x:v>5129</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
         <x:v>6318</x:v>
@@ -706,7 +706,7 @@
         <x:v>2053</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>3500</x:v>
+        <x:v>3501</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>3699</x:v>
@@ -778,7 +778,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>383</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>515</x:v>
@@ -868,7 +868,7 @@
         <x:v>1174</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>550</x:v>
+        <x:v>551</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -492,7 +492,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>556</x:v>
+        <x:v>561</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>868</x:v>
@@ -501,10 +501,10 @@
         <x:v>1486</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1774</x:v>
+        <x:v>1776</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>711</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
@@ -518,19 +518,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>1148</x:v>
+        <x:v>1160</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>3066</x:v>
+        <x:v>3068</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5129</x:v>
+        <x:v>5131</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6318</x:v>
+        <x:v>6322</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>3662</x:v>
+        <x:v>3663</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -654,10 +654,10 @@
         <x:v>476</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>686</x:v>
+        <x:v>687</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>814</x:v>
+        <x:v>815</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>550</x:v>
@@ -677,7 +677,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>674</x:v>
+        <x:v>675</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>1250</x:v>
@@ -709,10 +709,10 @@
         <x:v>3501</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>3699</x:v>
+        <x:v>3700</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>2206</x:v>
+        <x:v>2207</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
         <x:v>0</x:v>
@@ -778,7 +778,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>515</x:v>
@@ -804,13 +804,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>386</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>1072</x:v>
+        <x:v>1073</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
         <x:v>184</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -527,7 +527,7 @@
         <x:v>5131</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6322</x:v>
+        <x:v>6324</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3663</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -622,7 +622,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>456</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>252</x:v>
@@ -859,7 +859,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>658</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>1254</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -498,7 +498,7 @@
         <x:v>868</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1486</x:v>
+        <x:v>1487</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>1776</x:v>
@@ -706,7 +706,7 @@
         <x:v>2053</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>3501</x:v>
+        <x:v>3502</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>3700</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -492,10 +492,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>561</x:v>
+        <x:v>563</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>868</x:v>
+        <x:v>869</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>1487</x:v>
@@ -518,10 +518,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>1160</x:v>
+        <x:v>1162</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>3068</x:v>
+        <x:v>3069</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>5131</x:v>
@@ -706,13 +706,13 @@
         <x:v>2053</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>3502</x:v>
+        <x:v>3503</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>3700</x:v>
+        <x:v>3701</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>2207</x:v>
+        <x:v>2208</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
         <x:v>0</x:v>
@@ -810,7 +810,7 @@
         <x:v>1073</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
         <x:v>184</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -527,7 +527,7 @@
         <x:v>5131</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6324</x:v>
+        <x:v>6325</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3663</x:v>
@@ -602,7 +602,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
         <x:v>28</x:v>
@@ -862,7 +862,7 @@
         <x:v>659</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1254</x:v>
+        <x:v>1253</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>1174</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -498,10 +498,10 @@
         <x:v>869</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1487</x:v>
+        <x:v>1488</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1776</x:v>
+        <x:v>1777</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>712</x:v>
@@ -521,16 +521,16 @@
         <x:v>1162</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>3069</x:v>
+        <x:v>3070</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5131</x:v>
+        <x:v>5134</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6325</x:v>
+        <x:v>6327</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>3663</x:v>
+        <x:v>3664</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -602,7 +602,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
         <x:v>28</x:v>
@@ -706,7 +706,7 @@
         <x:v>2053</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>3503</x:v>
+        <x:v>3505</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>3701</x:v>
@@ -862,7 +862,7 @@
         <x:v>659</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1253</x:v>
+        <x:v>1255</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>1174</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -521,13 +521,13 @@
         <x:v>1162</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>3070</x:v>
+        <x:v>3071</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>5134</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6327</x:v>
+        <x:v>6328</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3664</x:v>
@@ -628,10 +628,10 @@
         <x:v>252</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>162</x:v>
@@ -651,13 +651,13 @@
         <x:v>647</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>476</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>687</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>815</x:v>
+        <x:v>816</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>550</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -501,7 +501,7 @@
         <x:v>1488</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1777</x:v>
+        <x:v>1776</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>712</x:v>
@@ -527,7 +527,7 @@
         <x:v>5134</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6328</x:v>
+        <x:v>6329</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3664</x:v>
@@ -706,7 +706,7 @@
         <x:v>2053</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>3505</x:v>
+        <x:v>3506</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>3701</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -521,16 +521,16 @@
         <x:v>1162</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>3071</x:v>
+        <x:v>3072</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5134</x:v>
+        <x:v>5136</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6329</x:v>
+        <x:v>6330</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>3664</x:v>
+        <x:v>3665</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -813,7 +813,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>127</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -521,7 +521,7 @@
         <x:v>1162</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>3072</x:v>
+        <x:v>3073</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>5136</x:v>
@@ -706,7 +706,7 @@
         <x:v>2053</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>3506</x:v>
+        <x:v>3507</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>3701</x:v>
@@ -787,7 +787,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>36</x:v>
@@ -816,7 +816,7 @@
         <x:v>185</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
-        <x:v>127</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -492,7 +492,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>563</x:v>
+        <x:v>564</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>869</x:v>
@@ -521,13 +521,13 @@
         <x:v>1162</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>3073</x:v>
+        <x:v>3074</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>5136</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6330</x:v>
+        <x:v>6331</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3665</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -495,7 +495,7 @@
         <x:v>564</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>869</x:v>
+        <x:v>870</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>1488</x:v>
@@ -524,7 +524,7 @@
         <x:v>3074</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5136</x:v>
+        <x:v>5138</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
         <x:v>6331</x:v>
@@ -706,7 +706,7 @@
         <x:v>2053</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>3507</x:v>
+        <x:v>3506</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>3701</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -527,10 +527,10 @@
         <x:v>5138</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6331</x:v>
+        <x:v>6334</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>3665</x:v>
+        <x:v>3666</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -599,7 +599,7 @@
         <x:v>300</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
         <x:v>48</x:v>
@@ -706,7 +706,7 @@
         <x:v>2053</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>3506</x:v>
+        <x:v>3505</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>3701</x:v>
@@ -862,7 +862,7 @@
         <x:v>659</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1255</x:v>
+        <x:v>1257</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>1174</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -495,7 +495,7 @@
         <x:v>564</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>870</x:v>
+        <x:v>872</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>1488</x:v>
@@ -527,10 +527,10 @@
         <x:v>5138</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6334</x:v>
+        <x:v>6335</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>3666</x:v>
+        <x:v>3667</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -703,7 +703,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>2053</x:v>
+        <x:v>2054</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>3505</x:v>
@@ -790,7 +790,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
         <x:v>0</x:v>
@@ -833,7 +833,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>334</x:v>
@@ -859,13 +859,13 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>659</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1257</x:v>
+        <x:v>1258</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1174</x:v>
+        <x:v>1175</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>551</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -530,7 +530,7 @@
         <x:v>6335</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>3667</x:v>
+        <x:v>3668</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -677,7 +677,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>675</x:v>
+        <x:v>676</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>1250</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -495,13 +495,13 @@
         <x:v>564</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>872</x:v>
+        <x:v>873</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>1488</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1776</x:v>
+        <x:v>1777</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>712</x:v>
@@ -524,10 +524,10 @@
         <x:v>3074</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5138</x:v>
+        <x:v>5140</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6335</x:v>
+        <x:v>6336</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3668</x:v>
@@ -709,7 +709,7 @@
         <x:v>3505</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>3701</x:v>
+        <x:v>3702</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>2208</x:v>
@@ -813,7 +813,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>130</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -521,7 +521,7 @@
         <x:v>1162</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>3074</x:v>
+        <x:v>3075</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>5140</x:v>
@@ -648,7 +648,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>647</x:v>
+        <x:v>649</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>477</x:v>
@@ -781,7 +781,7 @@
         <x:v>385</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>515</x:v>
+        <x:v>516</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>64</x:v>
@@ -836,10 +836,10 @@
         <x:v>201</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>477</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>182</x:v>
@@ -865,7 +865,7 @@
         <x:v>1258</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1175</x:v>
+        <x:v>1178</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>551</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -527,10 +527,10 @@
         <x:v>5140</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6336</x:v>
+        <x:v>6337</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>3668</x:v>
+        <x:v>3669</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -521,13 +521,13 @@
         <x:v>1162</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>3075</x:v>
+        <x:v>3076</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>5140</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6337</x:v>
+        <x:v>6339</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3669</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -527,7 +527,7 @@
         <x:v>5140</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6339</x:v>
+        <x:v>6340</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3669</x:v>
@@ -712,7 +712,7 @@
         <x:v>3702</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>2208</x:v>
+        <x:v>2209</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
         <x:v>0</x:v>
@@ -781,7 +781,7 @@
         <x:v>385</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>516</x:v>
+        <x:v>518</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>64</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -501,7 +501,7 @@
         <x:v>1488</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1777</x:v>
+        <x:v>1778</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>712</x:v>
@@ -521,13 +521,13 @@
         <x:v>1162</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>3076</x:v>
+        <x:v>3077</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5140</x:v>
+        <x:v>5141</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6340</x:v>
+        <x:v>6344</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3669</x:v>
@@ -706,13 +706,13 @@
         <x:v>2054</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>3505</x:v>
+        <x:v>3506</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>3702</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>2209</x:v>
+        <x:v>2208</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -521,16 +521,16 @@
         <x:v>1162</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>3077</x:v>
+        <x:v>3078</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5141</x:v>
+        <x:v>5143</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
         <x:v>6344</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>3669</x:v>
+        <x:v>3670</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -862,7 +862,7 @@
         <x:v>660</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1258</x:v>
+        <x:v>1259</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>1178</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -686,7 +686,7 @@
         <x:v>1420</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>847</x:v>
+        <x:v>848</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -524,7 +524,7 @@
         <x:v>3078</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5143</x:v>
+        <x:v>5145</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
         <x:v>6344</x:v>
@@ -700,13 +700,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>2054</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>3506</x:v>
+        <x:v>3507</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>3702</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -498,10 +498,10 @@
         <x:v>873</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1488</x:v>
+        <x:v>1489</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1778</x:v>
+        <x:v>1777</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>712</x:v>
@@ -527,7 +527,7 @@
         <x:v>5145</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6344</x:v>
+        <x:v>6345</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3670</x:v>
@@ -712,7 +712,7 @@
         <x:v>3702</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>2208</x:v>
+        <x:v>2209</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -501,7 +501,7 @@
         <x:v>1489</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1777</x:v>
+        <x:v>1779</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>712</x:v>
@@ -524,10 +524,10 @@
         <x:v>3078</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5145</x:v>
+        <x:v>5146</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6345</x:v>
+        <x:v>6346</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3670</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -501,7 +501,7 @@
         <x:v>1489</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1779</x:v>
+        <x:v>1780</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>712</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -501,7 +501,7 @@
         <x:v>1489</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1780</x:v>
+        <x:v>1781</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>712</x:v>
@@ -518,10 +518,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>1162</x:v>
+        <x:v>1163</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>3078</x:v>
+        <x:v>3080</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>5146</x:v>
@@ -862,7 +862,7 @@
         <x:v>660</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1259</x:v>
+        <x:v>1258</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>1178</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -524,7 +524,7 @@
         <x:v>3080</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5146</x:v>
+        <x:v>5148</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
         <x:v>6346</x:v>
@@ -648,7 +648,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>649</x:v>
+        <x:v>648</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>477</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -518,7 +518,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>1163</x:v>
+        <x:v>1161</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>3080</x:v>
@@ -712,7 +712,7 @@
         <x:v>3702</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>2209</x:v>
+        <x:v>2210</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
         <x:v>0</x:v>
@@ -862,10 +862,10 @@
         <x:v>660</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1258</x:v>
+        <x:v>1259</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1178</x:v>
+        <x:v>1179</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>551</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -501,7 +501,7 @@
         <x:v>1489</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1781</x:v>
+        <x:v>1782</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>712</x:v>
@@ -524,13 +524,13 @@
         <x:v>3080</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5148</x:v>
+        <x:v>5149</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6346</x:v>
+        <x:v>6347</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>3670</x:v>
+        <x:v>3672</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -631,7 +631,7 @@
         <x:v>282</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>349</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>162</x:v>
@@ -709,7 +709,7 @@
         <x:v>3507</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>3702</x:v>
+        <x:v>3703</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>2210</x:v>
@@ -781,7 +781,7 @@
         <x:v>385</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>518</x:v>
+        <x:v>519</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>64</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -498,10 +498,10 @@
         <x:v>873</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1489</x:v>
+        <x:v>1490</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1782</x:v>
+        <x:v>1781</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>712</x:v>
@@ -521,16 +521,16 @@
         <x:v>1161</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>3080</x:v>
+        <x:v>3081</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5149</x:v>
+        <x:v>5148</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6347</x:v>
+        <x:v>6351</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>3672</x:v>
+        <x:v>3674</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -680,7 +680,7 @@
         <x:v>676</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>1250</x:v>
+        <x:v>1252</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
         <x:v>1420</x:v>
@@ -712,7 +712,7 @@
         <x:v>3703</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>2210</x:v>
+        <x:v>2211</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
         <x:v>0</x:v>
@@ -865,7 +865,7 @@
         <x:v>1259</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1179</x:v>
+        <x:v>1180</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>551</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -527,7 +527,7 @@
         <x:v>5148</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6351</x:v>
+        <x:v>6352</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3674</x:v>
@@ -706,7 +706,7 @@
         <x:v>2054</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>3507</x:v>
+        <x:v>3508</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>3703</x:v>
@@ -735,7 +735,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>7</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -524,7 +524,7 @@
         <x:v>3081</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5148</x:v>
+        <x:v>5149</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
         <x:v>6352</x:v>
@@ -706,10 +706,10 @@
         <x:v>2054</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>3508</x:v>
+        <x:v>3509</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>3703</x:v>
+        <x:v>3704</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>2211</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -498,10 +498,10 @@
         <x:v>873</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1490</x:v>
+        <x:v>1491</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1781</x:v>
+        <x:v>1782</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>712</x:v>
@@ -527,7 +527,7 @@
         <x:v>5149</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6352</x:v>
+        <x:v>6353</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3674</x:v>
@@ -680,7 +680,7 @@
         <x:v>676</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>1252</x:v>
+        <x:v>1251</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
         <x:v>1420</x:v>
@@ -790,7 +790,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -709,7 +709,7 @@
         <x:v>3509</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>3704</x:v>
+        <x:v>3705</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>2211</x:v>
@@ -862,7 +862,7 @@
         <x:v>660</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1259</x:v>
+        <x:v>1258</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>1180</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -706,7 +706,7 @@
         <x:v>2054</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>3509</x:v>
+        <x:v>3511</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>3705</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -530,7 +530,7 @@
         <x:v>6353</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>3674</x:v>
+        <x:v>3676</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -709,7 +709,7 @@
         <x:v>3511</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>3705</x:v>
+        <x:v>3706</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>2211</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -495,7 +495,7 @@
         <x:v>564</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>873</x:v>
+        <x:v>872</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>1491</x:v>
@@ -527,7 +527,7 @@
         <x:v>5149</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6353</x:v>
+        <x:v>6352</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3676</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -492,7 +492,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>564</x:v>
+        <x:v>565</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>872</x:v>
@@ -660,7 +660,7 @@
         <x:v>816</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>550</x:v>
+        <x:v>551</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -703,7 +703,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>2054</x:v>
+        <x:v>2053</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>3511</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -492,7 +492,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>565</x:v>
+        <x:v>570</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>872</x:v>
@@ -501,7 +501,7 @@
         <x:v>1491</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1782</x:v>
+        <x:v>1781</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>712</x:v>
@@ -518,16 +518,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>1161</x:v>
+        <x:v>1162</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>3081</x:v>
+        <x:v>3079</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>5149</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6352</x:v>
+        <x:v>6351</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3676</x:v>
@@ -628,10 +628,10 @@
         <x:v>252</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>282</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>350</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>162</x:v>
@@ -651,13 +651,13 @@
         <x:v>648</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>477</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>687</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>816</x:v>
+        <x:v>814</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>551</x:v>
@@ -680,13 +680,13 @@
         <x:v>676</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>1251</x:v>
+        <x:v>1252</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>1420</x:v>
+        <x:v>1419</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>848</x:v>
+        <x:v>849</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -703,16 +703,16 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>2053</x:v>
+        <x:v>2055</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>3511</x:v>
+        <x:v>3515</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>3706</x:v>
+        <x:v>3713</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>2211</x:v>
+        <x:v>2213</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
         <x:v>0</x:v>
@@ -813,7 +813,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>186</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>130</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -492,7 +492,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>570</x:v>
+        <x:v>571</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>872</x:v>
@@ -521,13 +521,13 @@
         <x:v>1162</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>3079</x:v>
+        <x:v>3080</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5149</x:v>
+        <x:v>5150</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6351</x:v>
+        <x:v>6352</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3676</x:v>
@@ -660,7 +660,7 @@
         <x:v>814</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>551</x:v>
+        <x:v>552</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -683,7 +683,7 @@
         <x:v>1252</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>1419</x:v>
+        <x:v>1420</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>849</x:v>
@@ -703,7 +703,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>2055</x:v>
+        <x:v>2056</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>3515</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -498,7 +498,7 @@
         <x:v>872</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1491</x:v>
+        <x:v>1492</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>1781</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -504,7 +504,7 @@
         <x:v>1781</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>712</x:v>
+        <x:v>713</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
@@ -527,7 +527,7 @@
         <x:v>5150</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6352</x:v>
+        <x:v>6353</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3676</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -518,7 +518,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>1162</x:v>
+        <x:v>1163</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>3080</x:v>
@@ -680,7 +680,7 @@
         <x:v>676</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>1252</x:v>
+        <x:v>1254</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
         <x:v>1420</x:v>
@@ -706,13 +706,13 @@
         <x:v>2056</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>3515</x:v>
+        <x:v>3516</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>3713</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>2213</x:v>
+        <x:v>2214</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -518,7 +518,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>1163</x:v>
+        <x:v>1162</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>3080</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -492,7 +492,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>571</x:v>
+        <x:v>572</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>872</x:v>
@@ -501,10 +501,10 @@
         <x:v>1492</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1781</x:v>
+        <x:v>1782</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>713</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
@@ -521,13 +521,13 @@
         <x:v>1162</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>3080</x:v>
+        <x:v>3081</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5150</x:v>
+        <x:v>5154</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6353</x:v>
+        <x:v>6355</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3676</x:v>
@@ -706,10 +706,10 @@
         <x:v>2056</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>3516</x:v>
+        <x:v>3517</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>3713</x:v>
+        <x:v>3714</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>2214</x:v>
@@ -758,7 +758,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
         <x:v>25</x:v>
@@ -862,7 +862,7 @@
         <x:v>660</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1258</x:v>
+        <x:v>1257</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>1180</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -495,10 +495,10 @@
         <x:v>572</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>872</x:v>
+        <x:v>873</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1492</x:v>
+        <x:v>1491</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>1782</x:v>
@@ -524,10 +524,10 @@
         <x:v>3081</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5154</x:v>
+        <x:v>5155</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6355</x:v>
+        <x:v>6356</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3676</x:v>
@@ -683,7 +683,7 @@
         <x:v>1254</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>1420</x:v>
+        <x:v>1421</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>849</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -862,7 +862,7 @@
         <x:v>660</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1257</x:v>
+        <x:v>1258</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>1180</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -527,10 +527,10 @@
         <x:v>5155</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6356</x:v>
+        <x:v>6357</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>3676</x:v>
+        <x:v>3677</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -709,7 +709,7 @@
         <x:v>3517</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>3714</x:v>
+        <x:v>3716</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>2214</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -495,7 +495,7 @@
         <x:v>572</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>873</x:v>
+        <x:v>872</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>1491</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -524,10 +524,10 @@
         <x:v>3081</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5155</x:v>
+        <x:v>5156</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6357</x:v>
+        <x:v>6360</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3677</x:v>
@@ -706,13 +706,13 @@
         <x:v>2056</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>3517</x:v>
+        <x:v>3516</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>3716</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>2214</x:v>
+        <x:v>2215</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
         <x:v>0</x:v>
@@ -813,7 +813,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>130</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -524,7 +524,7 @@
         <x:v>3081</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5156</x:v>
+        <x:v>5155</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
         <x:v>6360</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Group B Arrests" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Group B Arrests" sheetId="1" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Offense Category</x:t>
   </x:si>
@@ -46,28 +46,238 @@
     <x:t>Female</x:t>
   </x:si>
   <x:si>
+    <x:t>572</x:t>
+  </x:si>
+  <x:si>
+    <x:t>872</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1491</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1782</x:t>
+  </x:si>
+  <x:si>
+    <x:t>714</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
     <x:t>Male</x:t>
   </x:si>
   <x:si>
+    <x:t>1162</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3081</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5156</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6361</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3677</x:t>
+  </x:si>
+  <x:si>
     <x:t>Bad Checks</x:t>
   </x:si>
   <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
   </x:si>
   <x:si>
+    <x:t>110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
     <x:t>Disorderly Conduct</x:t>
   </x:si>
   <x:si>
+    <x:t>457</x:t>
+  </x:si>
+  <x:si>
+    <x:t>252</x:t>
+  </x:si>
+  <x:si>
+    <x:t>280</x:t>
+  </x:si>
+  <x:si>
+    <x:t>348</x:t>
+  </x:si>
+  <x:si>
+    <x:t>162</x:t>
+  </x:si>
+  <x:si>
+    <x:t>649</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476</x:t>
+  </x:si>
+  <x:si>
+    <x:t>687</x:t>
+  </x:si>
+  <x:si>
+    <x:t>814</x:t>
+  </x:si>
+  <x:si>
+    <x:t>552</x:t>
+  </x:si>
+  <x:si>
     <x:t>Driving Under the Influence</x:t>
   </x:si>
   <x:si>
+    <x:t>52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>676</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1255</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1421</x:t>
+  </x:si>
+  <x:si>
+    <x:t>849</x:t>
+  </x:si>
+  <x:si>
+    <x:t>120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2056</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3517</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3716</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2216</x:t>
+  </x:si>
+  <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>
   </x:si>
   <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
     <x:t>Liquor Law Violations</x:t>
   </x:si>
   <x:si>
+    <x:t>385</x:t>
+  </x:si>
+  <x:si>
+    <x:t>519</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>390</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1073</x:t>
+  </x:si>
+  <x:si>
+    <x:t>172</x:t>
+  </x:si>
+  <x:si>
+    <x:t>186</x:t>
+  </x:si>
+  <x:si>
+    <x:t>130</x:t>
+  </x:si>
+  <x:si>
     <x:t>Trespass of Real Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>201</x:t>
+  </x:si>
+  <x:si>
+    <x:t>335</x:t>
+  </x:si>
+  <x:si>
+    <x:t>478</x:t>
+  </x:si>
+  <x:si>
+    <x:t>182</x:t>
+  </x:si>
+  <x:si>
+    <x:t>143</x:t>
+  </x:si>
+  <x:si>
+    <x:t>660</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1258</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>551</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -76,7 +286,7 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="165" formatCode="#,###,##0"/>
+    <x:numFmt numFmtId="164" formatCode="#,###,##0"/>
   </x:numFmts>
   <x:fonts count="2">
     <x:font>
@@ -126,13 +336,13 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -141,7 +351,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -149,7 +359,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -444,7 +654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -491,23 +701,23 @@
       <x:c r="B2" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C2" s="1" t="n">
-        <x:v>572</x:v>
-      </x:c>
-      <x:c r="D2" s="1" t="n">
-        <x:v>872</x:v>
-      </x:c>
-      <x:c r="E2" s="1" t="n">
-        <x:v>1491</x:v>
-      </x:c>
-      <x:c r="F2" s="1" t="n">
-        <x:v>1782</x:v>
-      </x:c>
-      <x:c r="G2" s="1" t="n">
-        <x:v>714</x:v>
-      </x:c>
-      <x:c r="H2" s="1" t="n">
-        <x:v>0</x:v>
+      <x:c r="C2" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D2" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E2" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F2" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G2" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H2" s="1" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -515,363 +725,363 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C3" s="1" t="n">
-        <x:v>1162</x:v>
-      </x:c>
-      <x:c r="D3" s="1" t="n">
-        <x:v>3081</x:v>
-      </x:c>
-      <x:c r="E3" s="1" t="n">
-        <x:v>5155</x:v>
-      </x:c>
-      <x:c r="F3" s="1" t="n">
-        <x:v>6360</x:v>
-      </x:c>
-      <x:c r="G3" s="1" t="n">
-        <x:v>3677</x:v>
-      </x:c>
-      <x:c r="H3" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D3" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F3" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G3" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H3" s="1" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
       <x:c r="A4" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C4" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D4" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E4" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F4" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G4" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H4" s="1" t="n">
-        <x:v>0</x:v>
+      <x:c r="C4" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D4" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E4" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F4" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G4" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H4" s="1" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
       <x:c r="A5" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C5" s="1" t="n">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="D5" s="1" t="n">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E5" s="1" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F5" s="1" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G5" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="H5" s="1" t="n">
-        <x:v>0</x:v>
+      <x:c r="C5" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D5" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E5" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F5" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G5" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H5" s="1" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
       <x:c r="A6" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C6" s="1" t="n">
-        <x:v>300</x:v>
-      </x:c>
-      <x:c r="D6" s="1" t="n">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="E6" s="1" t="n">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="F6" s="1" t="n">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="G6" s="1" t="n">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H6" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C6" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D6" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E6" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F6" s="1" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="G6" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H6" s="1" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
       <x:c r="A7" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C7" s="1" t="n">
-        <x:v>457</x:v>
-      </x:c>
-      <x:c r="D7" s="1" t="n">
-        <x:v>252</x:v>
-      </x:c>
-      <x:c r="E7" s="1" t="n">
-        <x:v>280</x:v>
-      </x:c>
-      <x:c r="F7" s="1" t="n">
-        <x:v>348</x:v>
-      </x:c>
-      <x:c r="G7" s="1" t="n">
-        <x:v>162</x:v>
-      </x:c>
-      <x:c r="H7" s="1" t="n">
-        <x:v>0</x:v>
+      <x:c r="C7" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D7" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E7" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F7" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="G7" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H7" s="1" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
       <x:c r="A8" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C8" s="1" t="n">
-        <x:v>648</x:v>
-      </x:c>
-      <x:c r="D8" s="1" t="n">
-        <x:v>476</x:v>
-      </x:c>
-      <x:c r="E8" s="1" t="n">
-        <x:v>687</x:v>
-      </x:c>
-      <x:c r="F8" s="1" t="n">
-        <x:v>814</x:v>
-      </x:c>
-      <x:c r="G8" s="1" t="n">
-        <x:v>552</x:v>
-      </x:c>
-      <x:c r="H8" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C8" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D8" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E8" s="1" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="F8" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="G8" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="H8" s="1" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
       <x:c r="A9" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C9" s="1" t="n">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="D9" s="1" t="n">
-        <x:v>676</x:v>
-      </x:c>
-      <x:c r="E9" s="1" t="n">
-        <x:v>1254</x:v>
-      </x:c>
-      <x:c r="F9" s="1" t="n">
-        <x:v>1421</x:v>
-      </x:c>
-      <x:c r="G9" s="1" t="n">
-        <x:v>849</x:v>
-      </x:c>
-      <x:c r="H9" s="1" t="n">
-        <x:v>0</x:v>
+      <x:c r="C9" s="1" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D9" s="1" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E9" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F9" s="1" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G9" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="H9" s="1" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
       <x:c r="A10" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C10" s="1" t="n">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="D10" s="1" t="n">
-        <x:v>2056</x:v>
-      </x:c>
-      <x:c r="E10" s="1" t="n">
-        <x:v>3516</x:v>
-      </x:c>
-      <x:c r="F10" s="1" t="n">
-        <x:v>3716</x:v>
-      </x:c>
-      <x:c r="G10" s="1" t="n">
-        <x:v>2215</x:v>
-      </x:c>
-      <x:c r="H10" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C10" s="1" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D10" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E10" s="1" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="F10" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="G10" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H10" s="1" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
       <x:c r="A11" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C11" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D11" s="1" t="n">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="E11" s="1" t="n">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="F11" s="1" t="n">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="G11" s="1" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H11" s="1" t="n">
-        <x:v>0</x:v>
+      <x:c r="C11" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D11" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E11" s="1" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F11" s="1" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="G11" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="H11" s="1" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8">
       <x:c r="A12" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C12" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D12" s="1" t="n">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E12" s="1" t="n">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F12" s="1" t="n">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G12" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="H12" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C12" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D12" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E12" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="F12" s="1" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="G12" s="1" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="H12" s="1" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
       <x:c r="A13" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C13" s="1" t="n">
-        <x:v>385</x:v>
-      </x:c>
-      <x:c r="D13" s="1" t="n">
-        <x:v>519</x:v>
-      </x:c>
-      <x:c r="E13" s="1" t="n">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="F13" s="1" t="n">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="G13" s="1" t="n">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="H13" s="1" t="n">
-        <x:v>0</x:v>
+      <x:c r="C13" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D13" s="1" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="E13" s="1" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="F13" s="1" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="G13" s="1" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="H13" s="1" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:8">
       <x:c r="A14" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C14" s="1" t="n">
-        <x:v>390</x:v>
-      </x:c>
-      <x:c r="D14" s="1" t="n">
-        <x:v>1073</x:v>
-      </x:c>
-      <x:c r="E14" s="1" t="n">
-        <x:v>172</x:v>
-      </x:c>
-      <x:c r="F14" s="1" t="n">
-        <x:v>186</x:v>
-      </x:c>
-      <x:c r="G14" s="1" t="n">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="H14" s="1" t="n">
-        <x:v>0</x:v>
+      <x:c r="C14" s="1" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D14" s="1" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E14" s="1" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="F14" s="1" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="G14" s="1" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="H14" s="1" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:8">
       <x:c r="A15" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C15" s="1" t="n">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="D15" s="1" t="n">
-        <x:v>201</x:v>
-      </x:c>
-      <x:c r="E15" s="1" t="n">
-        <x:v>335</x:v>
-      </x:c>
-      <x:c r="F15" s="1" t="n">
-        <x:v>478</x:v>
-      </x:c>
-      <x:c r="G15" s="1" t="n">
-        <x:v>182</x:v>
-      </x:c>
-      <x:c r="H15" s="1" t="n">
-        <x:v>0</x:v>
+      <x:c r="C15" s="1" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D15" s="1" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E15" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="F15" s="1" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G15" s="1" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="H15" s="1" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
       <x:c r="A16" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C16" s="1" t="n">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="D16" s="1" t="n">
-        <x:v>660</x:v>
-      </x:c>
-      <x:c r="E16" s="1" t="n">
-        <x:v>1258</x:v>
-      </x:c>
-      <x:c r="F16" s="1" t="n">
-        <x:v>1180</x:v>
-      </x:c>
-      <x:c r="G16" s="1" t="n">
-        <x:v>551</x:v>
-      </x:c>
-      <x:c r="H16" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C16" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D16" s="1" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E16" s="1" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="F16" s="1" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="G16" s="1" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="H16" s="1" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -166,7 +166,7 @@
     <x:t>1255</x:t>
   </x:si>
   <x:si>
-    <x:t>1421</x:t>
+    <x:t>1422</x:t>
   </x:si>
   <x:si>
     <x:t>849</x:t>
@@ -181,7 +181,7 @@
     <x:t>3517</x:t>
   </x:si>
   <x:si>
-    <x:t>3716</x:t>
+    <x:t>3717</x:t>
   </x:si>
   <x:si>
     <x:t>2216</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -175,10 +175,10 @@
     <x:t>120</x:t>
   </x:si>
   <x:si>
-    <x:t>2056</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3517</x:t>
+    <x:t>2057</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3518</x:t>
   </x:si>
   <x:si>
     <x:t>3717</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -139,7 +139,7 @@
     <x:t>162</x:t>
   </x:si>
   <x:si>
-    <x:t>649</x:t>
+    <x:t>648</x:t>
   </x:si>
   <x:si>
     <x:t>476</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -76,7 +76,7 @@
     <x:t>5156</x:t>
   </x:si>
   <x:si>
-    <x:t>6361</x:t>
+    <x:t>6362</x:t>
   </x:si>
   <x:si>
     <x:t>3677</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -163,7 +163,7 @@
     <x:t>676</x:t>
   </x:si>
   <x:si>
-    <x:t>1255</x:t>
+    <x:t>1254</x:t>
   </x:si>
   <x:si>
     <x:t>1422</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -67,7 +67,7 @@
     <x:t>Male</x:t>
   </x:si>
   <x:si>
-    <x:t>1162</x:t>
+    <x:t>1164</x:t>
   </x:si>
   <x:si>
     <x:t>3081</x:t>
@@ -79,7 +79,7 @@
     <x:t>6362</x:t>
   </x:si>
   <x:si>
-    <x:t>3677</x:t>
+    <x:t>3676</x:t>
   </x:si>
   <x:si>
     <x:t>Bad Checks</x:t>
@@ -205,7 +205,7 @@
     <x:t>12</x:t>
   </x:si>
   <x:si>
-    <x:t>26</x:t>
+    <x:t>27</x:t>
   </x:si>
   <x:si>
     <x:t>25</x:t>
@@ -268,7 +268,7 @@
     <x:t>143</x:t>
   </x:si>
   <x:si>
-    <x:t>660</x:t>
+    <x:t>659</x:t>
   </x:si>
   <x:si>
     <x:t>1258</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -70,7 +70,7 @@
     <x:t>1164</x:t>
   </x:si>
   <x:si>
-    <x:t>3081</x:t>
+    <x:t>3082</x:t>
   </x:si>
   <x:si>
     <x:t>5156</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -268,7 +268,7 @@
     <x:t>143</x:t>
   </x:si>
   <x:si>
-    <x:t>659</x:t>
+    <x:t>660</x:t>
   </x:si>
   <x:si>
     <x:t>1258</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -49,13 +49,13 @@
     <x:t>572</x:t>
   </x:si>
   <x:si>
-    <x:t>872</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1491</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1782</x:t>
+    <x:t>873</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1493</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1784</x:t>
   </x:si>
   <x:si>
     <x:t>714</x:t>
@@ -70,13 +70,13 @@
     <x:t>1164</x:t>
   </x:si>
   <x:si>
-    <x:t>3082</x:t>
+    <x:t>3083</x:t>
   </x:si>
   <x:si>
     <x:t>5156</x:t>
   </x:si>
   <x:si>
-    <x:t>6362</x:t>
+    <x:t>6364</x:t>
   </x:si>
   <x:si>
     <x:t>3676</x:t>
@@ -163,7 +163,7 @@
     <x:t>676</x:t>
   </x:si>
   <x:si>
-    <x:t>1254</x:t>
+    <x:t>1255</x:t>
   </x:si>
   <x:si>
     <x:t>1422</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -67,7 +67,7 @@
     <x:t>Male</x:t>
   </x:si>
   <x:si>
-    <x:t>1164</x:t>
+    <x:t>1163</x:t>
   </x:si>
   <x:si>
     <x:t>3083</x:t>
@@ -76,7 +76,7 @@
     <x:t>5156</x:t>
   </x:si>
   <x:si>
-    <x:t>6364</x:t>
+    <x:t>6363</x:t>
   </x:si>
   <x:si>
     <x:t>3676</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -70,7 +70,7 @@
     <x:t>1163</x:t>
   </x:si>
   <x:si>
-    <x:t>3083</x:t>
+    <x:t>3085</x:t>
   </x:si>
   <x:si>
     <x:t>5156</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -178,7 +178,7 @@
     <x:t>2057</x:t>
   </x:si>
   <x:si>
-    <x:t>3518</x:t>
+    <x:t>3517</x:t>
   </x:si>
   <x:si>
     <x:t>3717</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -73,13 +73,13 @@
     <x:t>3085</x:t>
   </x:si>
   <x:si>
-    <x:t>5156</x:t>
+    <x:t>5157</x:t>
   </x:si>
   <x:si>
     <x:t>6363</x:t>
   </x:si>
   <x:si>
-    <x:t>3676</x:t>
+    <x:t>3677</x:t>
   </x:si>
   <x:si>
     <x:t>Bad Checks</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -70,7 +70,7 @@
     <x:t>1163</x:t>
   </x:si>
   <x:si>
-    <x:t>3085</x:t>
+    <x:t>3086</x:t>
   </x:si>
   <x:si>
     <x:t>5157</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -76,7 +76,7 @@
     <x:t>5157</x:t>
   </x:si>
   <x:si>
-    <x:t>6363</x:t>
+    <x:t>6364</x:t>
   </x:si>
   <x:si>
     <x:t>3677</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -76,7 +76,7 @@
     <x:t>5157</x:t>
   </x:si>
   <x:si>
-    <x:t>6364</x:t>
+    <x:t>6366</x:t>
   </x:si>
   <x:si>
     <x:t>3677</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -148,7 +148,7 @@
     <x:t>687</x:t>
   </x:si>
   <x:si>
-    <x:t>814</x:t>
+    <x:t>815</x:t>
   </x:si>
   <x:si>
     <x:t>552</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -49,7 +49,7 @@
     <x:t>572</x:t>
   </x:si>
   <x:si>
-    <x:t>873</x:t>
+    <x:t>874</x:t>
   </x:si>
   <x:si>
     <x:t>1493</x:t>
@@ -67,7 +67,7 @@
     <x:t>Male</x:t>
   </x:si>
   <x:si>
-    <x:t>1163</x:t>
+    <x:t>1162</x:t>
   </x:si>
   <x:si>
     <x:t>3086</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -67,7 +67,7 @@
     <x:t>Male</x:t>
   </x:si>
   <x:si>
-    <x:t>1162</x:t>
+    <x:t>1164</x:t>
   </x:si>
   <x:si>
     <x:t>3086</x:t>
